--- a/data/features_dict.xlsx
+++ b/data/features_dict.xlsx
@@ -667,17 +667,17 @@
   </sheetPr>
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C87" activeCellId="0" sqref="C87"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.60728744939271"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.49797570850202"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9595141700405"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.40485829959514"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="93.1943319838057"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.39271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="94.0485829959514"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
